--- a/primary_PCB/BOM_primary_PCB/BOM_for_user.xlsx
+++ b/primary_PCB/BOM_primary_PCB/BOM_for_user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zevni\Desktop\FE_2023-2024\ModulG_2\SmartBees-HW\primary_PCB\BOM_primary_PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zevni\Desktop\FE_2023-2024\ModulG_2\cebela_final_200524\BOM_glavni_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D52E27-12FC-4B71-9272-40CC79135377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611868C7-EE1C-4CBF-8FBF-AB119F3348FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,6 +63,9 @@
     <t>RP1055</t>
   </si>
   <si>
+    <t>Ohišje za PCB</t>
+  </si>
+  <si>
     <t>(8,509x8x3,988)cm</t>
   </si>
   <si>
@@ -121,9 +124,6 @@
   </si>
   <si>
     <t>IPEX</t>
-  </si>
-  <si>
-    <t>PCB housing</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,31 +523,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>2</v>
@@ -590,22 +590,22 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
